--- a/data/trans_orig/P1498-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1498-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CC71832-FE0F-4194-9270-9CA5A59CA255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0138869-03EE-4598-AB33-FBBB0F290A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D8C839D3-A4C4-4FD2-A4C5-922ACE9640FB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF5A89C5-B4EE-4EFA-B55A-B7EB9BFBA697}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA29C48D-DDE9-46E7-9154-09A42A8578ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68A8347-EF23-4A92-9109-CC007BFA3F31}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1081,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5007C92-2ADB-4B43-A3DD-74BA06B3233D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F944F11-7D8B-4D6A-B8F0-E296D6CF6CB5}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P1498-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1498-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0138869-03EE-4598-AB33-FBBB0F290A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C22DC536-96B0-4429-A999-2187FF938C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF5A89C5-B4EE-4EFA-B55A-B7EB9BFBA697}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EECA16F8-B59E-41D2-B4E7-4001EFF771DA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +111,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con diagnóstico de otra enfermedad 2 en 2015 (Tasa respuesta: 0,33%)</t>
+    <t>Población con diagnóstico de otra enfermedad 2 en 2016 (Tasa respuesta: 0,33%)</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -538,7 +538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68A8347-EF23-4A92-9109-CC007BFA3F31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2E6D98-B5AF-40BA-A450-AEAE6B9D2900}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1081,7 +1081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F944F11-7D8B-4D6A-B8F0-E296D6CF6CB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC544F9-517A-41E0-A94A-1149F1C484F6}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
